--- a/R/commonFunc/gene result.xlsx
+++ b/R/commonFunc/gene result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\DREAM-challenge\R\commonFunc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\course material\dream\project\DREAM-challenge\R\commonFunc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,10 +437,10 @@
   <dimension ref="A1:H3040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G2" sqref="G2:G3040"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -33144,7 +33144,7 @@
         <v>75</v>
       </c>
       <c r="G1258">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H1258">
         <v>17</v>
@@ -33196,7 +33196,7 @@
         <v>130</v>
       </c>
       <c r="G1260">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="H1260">
         <v>24</v>
@@ -33300,7 +33300,7 @@
         <v>144</v>
       </c>
       <c r="G1264">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="H1264">
         <v>41</v>
@@ -33352,7 +33352,7 @@
         <v>114</v>
       </c>
       <c r="G1266">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="H1266">
         <v>54</v>
@@ -33404,7 +33404,7 @@
         <v>108</v>
       </c>
       <c r="G1268">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H1268">
         <v>44</v>
@@ -33456,7 +33456,7 @@
         <v>91</v>
       </c>
       <c r="G1270">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="H1270">
         <v>50</v>
@@ -33508,7 +33508,7 @@
         <v>95</v>
       </c>
       <c r="G1272">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="H1272">
         <v>55</v>
@@ -33560,7 +33560,7 @@
         <v>113</v>
       </c>
       <c r="G1274">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H1274">
         <v>65</v>
@@ -33612,7 +33612,7 @@
         <v>97</v>
       </c>
       <c r="G1276">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="H1276">
         <v>137</v>
@@ -33664,7 +33664,7 @@
         <v>83</v>
       </c>
       <c r="G1278">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="H1278">
         <v>167</v>
@@ -33716,7 +33716,7 @@
         <v>101</v>
       </c>
       <c r="G1280">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H1280">
         <v>181</v>
@@ -33820,7 +33820,7 @@
         <v>94</v>
       </c>
       <c r="G1284">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H1284">
         <v>151</v>
@@ -34028,7 +34028,7 @@
         <v>47</v>
       </c>
       <c r="G1292">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H1292">
         <v>24</v>
@@ -34054,7 +34054,7 @@
         <v>39</v>
       </c>
       <c r="G1293">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H1293">
         <v>4</v>
@@ -34132,7 +34132,7 @@
         <v>18</v>
       </c>
       <c r="G1296">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H1296">
         <v>23</v>
@@ -34158,7 +34158,7 @@
         <v>148</v>
       </c>
       <c r="G1297">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H1297">
         <v>23</v>
@@ -34184,7 +34184,7 @@
         <v>155</v>
       </c>
       <c r="G1298">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="H1298">
         <v>24</v>
@@ -34210,7 +34210,7 @@
         <v>158</v>
       </c>
       <c r="G1299">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="H1299">
         <v>24</v>
@@ -34236,7 +34236,7 @@
         <v>163</v>
       </c>
       <c r="G1300">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="H1300">
         <v>27</v>
@@ -34262,7 +34262,7 @@
         <v>175</v>
       </c>
       <c r="G1301">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H1301">
         <v>36</v>
@@ -34288,7 +34288,7 @@
         <v>157</v>
       </c>
       <c r="G1302">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="H1302">
         <v>43</v>
@@ -34314,7 +34314,7 @@
         <v>133</v>
       </c>
       <c r="G1303">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="H1303">
         <v>49</v>
@@ -34340,7 +34340,7 @@
         <v>173</v>
       </c>
       <c r="G1304">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="H1304">
         <v>51</v>
@@ -34366,7 +34366,7 @@
         <v>116</v>
       </c>
       <c r="G1305">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="H1305">
         <v>50</v>
@@ -34392,7 +34392,7 @@
         <v>109</v>
       </c>
       <c r="G1306">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="H1306">
         <v>46</v>
@@ -34418,7 +34418,7 @@
         <v>99</v>
       </c>
       <c r="G1307">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="H1307">
         <v>49</v>
@@ -34444,7 +34444,7 @@
         <v>127</v>
       </c>
       <c r="G1308">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="H1308">
         <v>47</v>
@@ -34470,7 +34470,7 @@
         <v>107</v>
       </c>
       <c r="G1309">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="H1309">
         <v>54</v>
@@ -34496,7 +34496,7 @@
         <v>115</v>
       </c>
       <c r="G1310">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="H1310">
         <v>54</v>
@@ -34522,7 +34522,7 @@
         <v>115</v>
       </c>
       <c r="G1311">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="H1311">
         <v>63</v>
@@ -34548,7 +34548,7 @@
         <v>120</v>
       </c>
       <c r="G1312">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="H1312">
         <v>63</v>
@@ -34574,7 +34574,7 @@
         <v>101</v>
       </c>
       <c r="G1313">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="H1313">
         <v>93</v>
@@ -34600,7 +34600,7 @@
         <v>123</v>
       </c>
       <c r="G1314">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="H1314">
         <v>129</v>
@@ -34626,7 +34626,7 @@
         <v>111</v>
       </c>
       <c r="G1315">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H1315">
         <v>135</v>
@@ -34652,7 +34652,7 @@
         <v>93</v>
       </c>
       <c r="G1316">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H1316">
         <v>160</v>
@@ -34678,7 +34678,7 @@
         <v>98</v>
       </c>
       <c r="G1317">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H1317">
         <v>177</v>
@@ -34704,7 +34704,7 @@
         <v>98</v>
       </c>
       <c r="G1318">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H1318">
         <v>194</v>
@@ -34730,7 +34730,7 @@
         <v>104</v>
       </c>
       <c r="G1319">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H1319">
         <v>163</v>
@@ -34756,7 +34756,7 @@
         <v>98</v>
       </c>
       <c r="G1320">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H1320">
         <v>152</v>
@@ -34782,7 +34782,7 @@
         <v>96</v>
       </c>
       <c r="G1321">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H1321">
         <v>148</v>
@@ -34808,7 +34808,7 @@
         <v>88</v>
       </c>
       <c r="G1322">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H1322">
         <v>149</v>
@@ -34834,7 +34834,7 @@
         <v>81</v>
       </c>
       <c r="G1323">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H1323">
         <v>149</v>
@@ -34860,7 +34860,7 @@
         <v>78</v>
       </c>
       <c r="G1324">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H1324">
         <v>124</v>
@@ -34886,7 +34886,7 @@
         <v>77</v>
       </c>
       <c r="G1325">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="H1325">
         <v>125</v>
@@ -34912,7 +34912,7 @@
         <v>67</v>
       </c>
       <c r="G1326">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H1326">
         <v>116</v>
@@ -34938,7 +34938,7 @@
         <v>65</v>
       </c>
       <c r="G1327">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="H1327">
         <v>82</v>
@@ -34964,7 +34964,7 @@
         <v>51</v>
       </c>
       <c r="G1328">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1328">
         <v>73</v>
@@ -34990,7 +34990,7 @@
         <v>48</v>
       </c>
       <c r="G1329">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H1329">
         <v>51</v>
@@ -35016,7 +35016,7 @@
         <v>13</v>
       </c>
       <c r="G1330">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="H1330">
         <v>0</v>
@@ -35042,7 +35042,7 @@
         <v>31</v>
       </c>
       <c r="G1331">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="H1331">
         <v>0</v>
@@ -35120,7 +35120,7 @@
         <v>123</v>
       </c>
       <c r="G1334">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H1334">
         <v>2</v>
@@ -35146,7 +35146,7 @@
         <v>142</v>
       </c>
       <c r="G1335">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H1335">
         <v>22</v>
@@ -35172,7 +35172,7 @@
         <v>153</v>
       </c>
       <c r="G1336">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="H1336">
         <v>26</v>
@@ -35198,7 +35198,7 @@
         <v>167</v>
       </c>
       <c r="G1337">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H1337">
         <v>23</v>
@@ -35224,7 +35224,7 @@
         <v>157</v>
       </c>
       <c r="G1338">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="H1338">
         <v>26</v>
@@ -35250,7 +35250,7 @@
         <v>177</v>
       </c>
       <c r="G1339">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="H1339">
         <v>36</v>
@@ -35276,7 +35276,7 @@
         <v>167</v>
       </c>
       <c r="G1340">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="H1340">
         <v>39</v>
@@ -35302,7 +35302,7 @@
         <v>156</v>
       </c>
       <c r="G1341">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="H1341">
         <v>49</v>
@@ -35328,7 +35328,7 @@
         <v>138</v>
       </c>
       <c r="G1342">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="H1342">
         <v>50</v>
@@ -35354,7 +35354,7 @@
         <v>124</v>
       </c>
       <c r="G1343">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H1343">
         <v>47</v>
@@ -35380,7 +35380,7 @@
         <v>136</v>
       </c>
       <c r="G1344">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="H1344">
         <v>45</v>
@@ -35406,7 +35406,7 @@
         <v>118</v>
       </c>
       <c r="G1345">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H1345">
         <v>51</v>
@@ -35432,7 +35432,7 @@
         <v>117</v>
       </c>
       <c r="G1346">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="H1346">
         <v>48</v>
@@ -35458,7 +35458,7 @@
         <v>107</v>
       </c>
       <c r="G1347">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="H1347">
         <v>58</v>
@@ -35484,7 +35484,7 @@
         <v>116</v>
       </c>
       <c r="G1348">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="H1348">
         <v>58</v>
@@ -35510,7 +35510,7 @@
         <v>120</v>
       </c>
       <c r="G1349">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="H1349">
         <v>61</v>
@@ -35536,7 +35536,7 @@
         <v>104</v>
       </c>
       <c r="G1350">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="H1350">
         <v>61</v>
@@ -35562,7 +35562,7 @@
         <v>107</v>
       </c>
       <c r="G1351">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="H1351">
         <v>75</v>
@@ -35588,7 +35588,7 @@
         <v>108</v>
       </c>
       <c r="G1352">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="H1352">
         <v>131</v>
@@ -35614,7 +35614,7 @@
         <v>106</v>
       </c>
       <c r="G1353">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H1353">
         <v>145</v>
@@ -35640,7 +35640,7 @@
         <v>100</v>
       </c>
       <c r="G1354">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H1354">
         <v>157</v>
@@ -35666,7 +35666,7 @@
         <v>90</v>
       </c>
       <c r="G1355">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H1355">
         <v>179</v>
@@ -35692,7 +35692,7 @@
         <v>96</v>
       </c>
       <c r="G1356">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H1356">
         <v>201</v>
@@ -35718,7 +35718,7 @@
         <v>94</v>
       </c>
       <c r="G1357">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H1357">
         <v>166</v>
@@ -35744,7 +35744,7 @@
         <v>101</v>
       </c>
       <c r="G1358">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H1358">
         <v>159</v>
@@ -35770,7 +35770,7 @@
         <v>85</v>
       </c>
       <c r="G1359">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H1359">
         <v>147</v>
@@ -35796,7 +35796,7 @@
         <v>113</v>
       </c>
       <c r="G1360">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H1360">
         <v>151</v>
@@ -35822,7 +35822,7 @@
         <v>76</v>
       </c>
       <c r="G1361">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H1361">
         <v>148</v>
@@ -35848,7 +35848,7 @@
         <v>81</v>
       </c>
       <c r="G1362">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H1362">
         <v>118</v>
@@ -35874,7 +35874,7 @@
         <v>67</v>
       </c>
       <c r="G1363">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H1363">
         <v>133</v>
@@ -35900,7 +35900,7 @@
         <v>67</v>
       </c>
       <c r="G1364">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H1364">
         <v>118</v>
@@ -35926,7 +35926,7 @@
         <v>71</v>
       </c>
       <c r="G1365">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H1365">
         <v>76</v>
@@ -35952,7 +35952,7 @@
         <v>56</v>
       </c>
       <c r="G1366">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H1366">
         <v>70</v>
@@ -35978,7 +35978,7 @@
         <v>45</v>
       </c>
       <c r="G1367">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H1367">
         <v>43</v>
@@ -36004,7 +36004,7 @@
         <v>5</v>
       </c>
       <c r="G1368">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H1368">
         <v>37</v>
@@ -36030,7 +36030,7 @@
         <v>30</v>
       </c>
       <c r="G1369">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H1369">
         <v>0</v>
@@ -36108,7 +36108,7 @@
         <v>43</v>
       </c>
       <c r="G1372">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H1372">
         <v>0</v>
@@ -36134,7 +36134,7 @@
         <v>132</v>
       </c>
       <c r="G1373">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="H1373">
         <v>19</v>
@@ -36160,7 +36160,7 @@
         <v>125</v>
       </c>
       <c r="G1374">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="H1374">
         <v>21</v>
@@ -36186,7 +36186,7 @@
         <v>148</v>
       </c>
       <c r="G1375">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="H1375">
         <v>24</v>
@@ -36212,7 +36212,7 @@
         <v>152</v>
       </c>
       <c r="G1376">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="H1376">
         <v>27</v>
@@ -36238,7 +36238,7 @@
         <v>163</v>
       </c>
       <c r="G1377">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="H1377">
         <v>33</v>
@@ -36264,7 +36264,7 @@
         <v>150</v>
       </c>
       <c r="G1378">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="H1378">
         <v>41</v>
@@ -36290,7 +36290,7 @@
         <v>142</v>
       </c>
       <c r="G1379">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="H1379">
         <v>50</v>
@@ -36316,7 +36316,7 @@
         <v>120</v>
       </c>
       <c r="G1380">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="H1380">
         <v>46</v>
@@ -36342,7 +36342,7 @@
         <v>118</v>
       </c>
       <c r="G1381">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H1381">
         <v>49</v>
@@ -36368,7 +36368,7 @@
         <v>114</v>
       </c>
       <c r="G1382">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="H1382">
         <v>48</v>
@@ -36394,7 +36394,7 @@
         <v>106</v>
       </c>
       <c r="G1383">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="H1383">
         <v>46</v>
@@ -36420,7 +36420,7 @@
         <v>119</v>
       </c>
       <c r="G1384">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="H1384">
         <v>51</v>
@@ -36446,7 +36446,7 @@
         <v>111</v>
       </c>
       <c r="G1385">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="H1385">
         <v>54</v>
@@ -36472,7 +36472,7 @@
         <v>120</v>
       </c>
       <c r="G1386">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="H1386">
         <v>59</v>
@@ -36498,7 +36498,7 @@
         <v>109</v>
       </c>
       <c r="G1387">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="H1387">
         <v>58</v>
@@ -36524,7 +36524,7 @@
         <v>120</v>
       </c>
       <c r="G1388">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H1388">
         <v>61</v>
@@ -36550,7 +36550,7 @@
         <v>121</v>
       </c>
       <c r="G1389">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1389">
         <v>86</v>
@@ -36576,7 +36576,7 @@
         <v>105</v>
       </c>
       <c r="G1390">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H1390">
         <v>139</v>
@@ -36602,7 +36602,7 @@
         <v>104</v>
       </c>
       <c r="G1391">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="H1391">
         <v>149</v>
@@ -36628,7 +36628,7 @@
         <v>108</v>
       </c>
       <c r="G1392">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H1392">
         <v>155</v>
@@ -36654,7 +36654,7 @@
         <v>111</v>
       </c>
       <c r="G1393">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H1393">
         <v>164</v>
@@ -36680,7 +36680,7 @@
         <v>106</v>
       </c>
       <c r="G1394">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H1394">
         <v>168</v>
@@ -36706,7 +36706,7 @@
         <v>109</v>
       </c>
       <c r="G1395">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H1395">
         <v>166</v>
@@ -36732,7 +36732,7 @@
         <v>109</v>
       </c>
       <c r="G1396">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H1396">
         <v>148</v>
@@ -36758,7 +36758,7 @@
         <v>90</v>
       </c>
       <c r="G1397">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H1397">
         <v>154</v>
@@ -36784,7 +36784,7 @@
         <v>88</v>
       </c>
       <c r="G1398">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H1398">
         <v>151</v>
@@ -36810,7 +36810,7 @@
         <v>82</v>
       </c>
       <c r="G1399">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="H1399">
         <v>142</v>
@@ -36836,7 +36836,7 @@
         <v>83</v>
       </c>
       <c r="G1400">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="H1400">
         <v>125</v>
@@ -36862,7 +36862,7 @@
         <v>71</v>
       </c>
       <c r="G1401">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H1401">
         <v>115</v>
@@ -36888,7 +36888,7 @@
         <v>77</v>
       </c>
       <c r="G1402">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1402">
         <v>119</v>
@@ -36914,7 +36914,7 @@
         <v>61</v>
       </c>
       <c r="G1403">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H1403">
         <v>70</v>
@@ -36940,7 +36940,7 @@
         <v>55</v>
       </c>
       <c r="G1404">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H1404">
         <v>59</v>
@@ -36966,7 +36966,7 @@
         <v>48</v>
       </c>
       <c r="G1405">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H1405">
         <v>62</v>
@@ -36992,7 +36992,7 @@
         <v>15</v>
       </c>
       <c r="G1406">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H1406">
         <v>11</v>
@@ -37018,7 +37018,7 @@
         <v>35</v>
       </c>
       <c r="G1407">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H1407">
         <v>0</v>
@@ -37096,7 +37096,7 @@
         <v>21</v>
       </c>
       <c r="G1410">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H1410">
         <v>22</v>
@@ -37122,7 +37122,7 @@
         <v>117</v>
       </c>
       <c r="G1411">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="H1411">
         <v>21</v>
@@ -37148,7 +37148,7 @@
         <v>95</v>
       </c>
       <c r="G1412">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="H1412">
         <v>21</v>
@@ -37174,7 +37174,7 @@
         <v>128</v>
       </c>
       <c r="G1413">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="H1413">
         <v>23</v>
@@ -37200,7 +37200,7 @@
         <v>110</v>
       </c>
       <c r="G1414">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="H1414">
         <v>27</v>
@@ -37226,7 +37226,7 @@
         <v>145</v>
       </c>
       <c r="G1415">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H1415">
         <v>37</v>
@@ -37252,7 +37252,7 @@
         <v>121</v>
       </c>
       <c r="G1416">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="H1416">
         <v>41</v>
@@ -37278,7 +37278,7 @@
         <v>129</v>
       </c>
       <c r="G1417">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="H1417">
         <v>51</v>
@@ -37304,7 +37304,7 @@
         <v>170</v>
       </c>
       <c r="G1418">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="H1418">
         <v>48</v>
@@ -37330,7 +37330,7 @@
         <v>160</v>
       </c>
       <c r="G1419">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="H1419">
         <v>48</v>
@@ -37356,7 +37356,7 @@
         <v>119</v>
       </c>
       <c r="G1420">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="H1420">
         <v>49</v>
@@ -37382,7 +37382,7 @@
         <v>146</v>
       </c>
       <c r="G1421">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="H1421">
         <v>46</v>
@@ -37408,7 +37408,7 @@
         <v>108</v>
       </c>
       <c r="G1422">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H1422">
         <v>49</v>
@@ -37434,7 +37434,7 @@
         <v>105</v>
       </c>
       <c r="G1423">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="H1423">
         <v>56</v>
@@ -37460,7 +37460,7 @@
         <v>134</v>
       </c>
       <c r="G1424">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="H1424">
         <v>55</v>
@@ -37486,7 +37486,7 @@
         <v>118</v>
       </c>
       <c r="G1425">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H1425">
         <v>64</v>
@@ -37512,7 +37512,7 @@
         <v>122</v>
       </c>
       <c r="G1426">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="H1426">
         <v>63</v>
@@ -37538,7 +37538,7 @@
         <v>129</v>
       </c>
       <c r="G1427">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H1427">
         <v>79</v>
@@ -37564,7 +37564,7 @@
         <v>142</v>
       </c>
       <c r="G1428">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H1428">
         <v>125</v>
@@ -37590,7 +37590,7 @@
         <v>107</v>
       </c>
       <c r="G1429">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H1429">
         <v>138</v>
@@ -37616,7 +37616,7 @@
         <v>106</v>
       </c>
       <c r="G1430">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H1430">
         <v>161</v>
@@ -37642,7 +37642,7 @@
         <v>97</v>
       </c>
       <c r="G1431">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H1431">
         <v>169</v>
@@ -37668,7 +37668,7 @@
         <v>96</v>
       </c>
       <c r="G1432">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H1432">
         <v>172</v>
@@ -37694,7 +37694,7 @@
         <v>104</v>
       </c>
       <c r="G1433">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H1433">
         <v>161</v>
@@ -37720,7 +37720,7 @@
         <v>101</v>
       </c>
       <c r="G1434">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H1434">
         <v>154</v>
@@ -37746,7 +37746,7 @@
         <v>106</v>
       </c>
       <c r="G1435">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H1435">
         <v>145</v>
@@ -37772,7 +37772,7 @@
         <v>91</v>
       </c>
       <c r="G1436">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H1436">
         <v>154</v>
@@ -37798,7 +37798,7 @@
         <v>100</v>
       </c>
       <c r="G1437">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="H1437">
         <v>145</v>
@@ -37824,7 +37824,7 @@
         <v>87</v>
       </c>
       <c r="G1438">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="H1438">
         <v>124</v>
@@ -37850,7 +37850,7 @@
         <v>77</v>
       </c>
       <c r="G1439">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H1439">
         <v>115</v>
@@ -37876,7 +37876,7 @@
         <v>74</v>
       </c>
       <c r="G1440">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H1440">
         <v>114</v>
@@ -37902,7 +37902,7 @@
         <v>87</v>
       </c>
       <c r="G1441">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H1441">
         <v>71</v>
@@ -37928,7 +37928,7 @@
         <v>82</v>
       </c>
       <c r="G1442">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H1442">
         <v>59</v>
@@ -37954,7 +37954,7 @@
         <v>53</v>
       </c>
       <c r="G1443">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H1443">
         <v>43</v>
@@ -37980,7 +37980,7 @@
         <v>9</v>
       </c>
       <c r="G1444">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="H1444">
         <v>9</v>
@@ -38006,7 +38006,7 @@
         <v>36</v>
       </c>
       <c r="G1445">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="H1445">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>85</v>
       </c>
       <c r="G1449">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="H1449">
         <v>20</v>
@@ -38162,7 +38162,7 @@
         <v>98</v>
       </c>
       <c r="G1451">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="H1451">
         <v>22</v>
@@ -38214,7 +38214,7 @@
         <v>118</v>
       </c>
       <c r="G1453">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="H1453">
         <v>36</v>
@@ -38266,7 +38266,7 @@
         <v>109</v>
       </c>
       <c r="G1455">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="H1455">
         <v>46</v>
@@ -38370,7 +38370,7 @@
         <v>94</v>
       </c>
       <c r="G1459">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="H1459">
         <v>45</v>
@@ -38422,7 +38422,7 @@
         <v>103</v>
       </c>
       <c r="G1461">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H1461">
         <v>57</v>
@@ -38474,7 +38474,7 @@
         <v>161</v>
       </c>
       <c r="G1463">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H1463">
         <v>62</v>
@@ -38526,7 +38526,7 @@
         <v>124</v>
       </c>
       <c r="G1465">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="H1465">
         <v>85</v>
@@ -38578,7 +38578,7 @@
         <v>93</v>
       </c>
       <c r="G1467">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H1467">
         <v>152</v>
@@ -38630,7 +38630,7 @@
         <v>89</v>
       </c>
       <c r="G1469">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H1469">
         <v>164</v>
@@ -38682,7 +38682,7 @@
         <v>95</v>
       </c>
       <c r="G1471">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H1471">
         <v>174</v>
@@ -38734,7 +38734,7 @@
         <v>81</v>
       </c>
       <c r="G1473">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H1473">
         <v>131</v>
@@ -38786,7 +38786,7 @@
         <v>80</v>
       </c>
       <c r="G1475">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="H1475">
         <v>123</v>
@@ -38838,7 +38838,7 @@
         <v>89</v>
       </c>
       <c r="G1477">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H1477">
         <v>128</v>
@@ -38864,7 +38864,7 @@
         <v>64</v>
       </c>
       <c r="G1478">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H1478">
         <v>102</v>
@@ -38890,7 +38890,7 @@
         <v>73</v>
       </c>
       <c r="G1479">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H1479">
         <v>72</v>
@@ -38916,7 +38916,7 @@
         <v>58</v>
       </c>
       <c r="G1480">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H1480">
         <v>57</v>
@@ -38942,7 +38942,7 @@
         <v>53</v>
       </c>
       <c r="G1481">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H1481">
         <v>41</v>
@@ -38968,7 +38968,7 @@
         <v>4</v>
       </c>
       <c r="G1482">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H1482">
         <v>2</v>
@@ -38994,7 +38994,7 @@
         <v>37</v>
       </c>
       <c r="G1483">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="H1483">
         <v>4</v>
@@ -77136,7 +77136,7 @@
         <v>130</v>
       </c>
       <c r="G2950">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="H2950">
         <v>53</v>
@@ -77188,7 +77188,7 @@
         <v>125</v>
       </c>
       <c r="G2952">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="H2952">
         <v>23</v>
@@ -78150,7 +78150,7 @@
         <v>172</v>
       </c>
       <c r="G2989">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="H2989">
         <v>27</v>
@@ -78566,7 +78566,7 @@
         <v>97</v>
       </c>
       <c r="G3005">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H3005">
         <v>155</v>
@@ -78670,7 +78670,7 @@
         <v>87</v>
       </c>
       <c r="G3009">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="H3009">
         <v>150</v>
@@ -79476,7 +79476,7 @@
         <v>97</v>
       </c>
       <c r="G3040">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="H3040">
         <v>20</v>
@@ -79496,7 +79496,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
